--- a/ICCardManager/src/ICCardManager/Resources/Templates/物品出納簿テンプレート.xlsx
+++ b/ICCardManager/src/ICCardManager/Resources/Templates/物品出納簿テンプレート.xlsx
@@ -147,7 +147,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <family val="3"/>

--- a/ICCardManager/src/ICCardManager/Resources/Templates/物品出納簿テンプレート.xlsx
+++ b/ICCardManager/src/ICCardManager/Resources/Templates/物品出納簿テンプレート.xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2329726771cacb7/交通系/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2329726771cacb7/交通系/src/ICCardManager/src/ICCardManager/Resources/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4D066CA252ABDACC1048CD5952D24673EEDF49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D033012-5F96-47F7-9DE9-86BE29EF9404}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDEB6FB7-12F5-4DD1-AC6B-91DE9DEC838F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="2300" windowWidth="28800" windowHeight="15380" tabRatio="753" xr2:uid="{FE0BEA33-9DE7-4E89-BF3C-448394F4E0F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="新物品出納簿" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">新物品出納簿!$A$1:$L$22</definedName>
+    <definedName name="Z_9A1CA30D_4BF4_43F0_98EF_BCFF52DEE2F4_.wvu.PrintArea" localSheetId="0" hidden="1">新物品出納簿!$A$1:$L$21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="114210" calcMode="manual"/>
+  <customWorkbookViews>
+    <customWorkbookView name="FINE_User - 個人用ビュー" guid="{9A1CA30D-4BF4-43F0-98EF-BCFF52DEE2F4}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="540" tabRatio="753" activeSheetId="2"/>
+  </customWorkbookViews>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>物品の分類</t>
     <rPh sb="0" eb="2">
@@ -48,134 +47,330 @@
     <rPh sb="3" eb="5">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>雑品（金券類）</t>
-    <rPh sb="0" eb="2">
-      <t>ザッピン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>キンケンルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
       <t>ヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>規格</t>
     <rPh sb="0" eb="2">
       <t>キカク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>払出数量
+又は
+払出金額</t>
+    <rPh sb="0" eb="2">
+      <t>ハライダシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハライダシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数量
+又は
+残額</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>単位</t>
     <rPh sb="0" eb="2">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>頁</t>
     <rPh sb="0" eb="1">
       <t>ページ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出納年月日</t>
-    <rPh sb="0" eb="5">
-      <t>スイトウネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>摘要
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏　　　名
+（物品請求・受領・返納者）</t>
+    <rPh sb="7" eb="9">
+      <t>ブッピン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　２　月計・累計欄の上下線は朱線又は太線を用いること。</t>
+    <rPh sb="6" eb="8">
+      <t>ゲッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ルイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジョウゲセン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フトセン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受入数量
+又は
+受入金額</t>
+    <rPh sb="0" eb="2">
+      <t>ウケイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウケイレ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備　　　　　　　考</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【G-3　物品出納簿】</t>
+    <rPh sb="5" eb="7">
+      <t>ブッピン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>スイトウボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　５　出納実績がない月は記載を省略することができる。</t>
+    <rPh sb="6" eb="8">
+      <t>スイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摘　　　　　　要
 （受入先、購入単価、乗車区間等）</t>
-    <rPh sb="0" eb="2">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ウケイレサキ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>コウニュウタンカ</t>
-    </rPh>
-    <rPh sb="13" eb="18">
-      <t>ジョウシャクカントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>受入金額</t>
-    <rPh sb="0" eb="4">
-      <t>ウケイレキンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>払出金額</t>
-    <rPh sb="0" eb="4">
-      <t>ハライダシキンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>残額</t>
-    <rPh sb="0" eb="2">
-      <t>ザンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>備考</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウシャ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>クカントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考　１　物品の分類欄には、消耗品、原材料、雑品（借用物品、金券類、売払用物品、配布・贈与物品、貸与物品)の別を記載し、その品名毎に作成のこと。</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">氏名
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（物品請求・受領・返納者）</t>
-    </r>
+    <rPh sb="5" eb="7">
+      <t>ブッピン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウモウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ゲンザイリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ザッピン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　４　パソコン等にて作成の場合は、各月毎に作成し紙に出力すること。</t>
+    <rPh sb="10" eb="11">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　３　月計時に、物品管理者、物品出納員又は物品取扱員が確認をし、月計を記載した行の出納年月日の欄に押印又はサインすること。</t>
+    <rPh sb="11" eb="13">
+      <t>ブッピン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブッピン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トリアツカイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゲッケイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>スイトウ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>マタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出納年月日</t>
     <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ブッピンセイキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジュリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ヘンノウシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>円</t>
-    <rPh sb="0" eb="1">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+      <t>スイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R3.4改正</t>
+    <rPh sb="4" eb="6">
+      <t>カイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -183,46 +378,59 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="[$-411]ge\.m\.d;@"/>
+    <numFmt numFmtId="182" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,7 +441,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -248,7 +456,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -256,72 +464,468 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -338,7 +942,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -383,7 +987,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -418,7 +1022,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -599,104 +1203,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DB4D4A-294F-4EF7-8C72-1F4F11075A55}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="6" width="10.58203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.58203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="7" width="10.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.6328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="18" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="33">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="H3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="I3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="43"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="43"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H2:K2"/>
+  <customSheetViews>
+    <customSheetView guid="{9A1CA30D-4BF4-43F0-98EF-BCFF52DEE2F4}" scale="85" showPageBreaks="1" printArea="1" view="pageBreakPreview" showRuler="0" topLeftCell="A10">
+      <selection activeCell="A19" sqref="A19:L19"/>
+      <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.27559055118110237"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{a3c15fd4-4149-4032-8f15-062bd4999b60}">
+          <xlsdti:showDataTypeIconsCustomSheetView visible="0"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="39">
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>